--- a/data-raw/inebo.xlsx
+++ b/data-raw/inebo.xlsx
@@ -15,9 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
-  <si>
-    <t>BOLIVIA: INDICADORES DE DISTRIBUCIÓN DEL INGRESO PER CÁPITA MENSUAL (1)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+  <si>
+    <t>BOLIVIA: INDICADORES DE DISTRIBUCIÓN DEL INGRESO PER CÁPITA MENSUAL</t>
+  </si>
+  <si>
+    <t> </t>
   </si>
   <si>
     <t>DESCRIPCION</t>
@@ -35,7 +38,7 @@
     <t>Área Rural</t>
   </si>
   <si>
-    <t>RAZÓN DE PERCENTILES (En porcentaje)</t>
+    <t>RAZÓN DE PERCENTIL DE LA DISTRIBUCIÓN DE INGRESOS (En porcentaje)</t>
   </si>
   <si>
     <t>Percentil 90 / Percentil 10</t>
@@ -53,7 +56,7 @@
     <t xml:space="preserve">Fuente: INSTITUTO NACIONAL DE ESTADÍSTICA                                                                                                                                                                                                                 </t>
   </si>
   <si>
-    <t xml:space="preserve">ENCUESTAS DE MEJORAMIENTO DE CONDICIONES DE VIDA (MECOVI 1999 - 2002),  ENCUESTA DE HOGARES 2005 - 2014                                                                                                                                                   </t>
+    <t xml:space="preserve">ENCUESTAS DE MEJORAMIENTO DE CONDICIONES DE VIDA (MECOVI 1999 - 2002),  ENCUESTA DE HOGARES 2005 - 2016                                                                                                                                                   </t>
   </si>
   <si>
     <t xml:space="preserve">Notas:                                                                                                                                                                                                                                                    </t>
@@ -65,7 +68,13 @@
     <t xml:space="preserve">No se realizó la Encuesta de Hogares 2010.                                                                                                                                                                                                                </t>
   </si>
   <si>
-    <t xml:space="preserve">A partir de 2008 no se realizan imputaciones en los ingresos.                                                                                                                                                                                             </t>
+    <t xml:space="preserve">No se calcularon estos indicadores para la Encuesta Contínua a Hogares 2003 - 2004, por tanto no existe información para ese período 
+                                                                                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A partir de la Encuesta de Hogares 2011, las estimaciones  fueron realizadas con los factores de expansión calculados en base a las proyecciones de población basada en el Censo 2012.
+"
+                                                               </t>
   </si>
 </sst>
 </file>
@@ -138,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="163">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -190,6 +199,9 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -239,6 +251,9 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -284,6 +299,9 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -329,6 +347,9 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -374,6 +395,9 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -419,6 +443,9 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -464,6 +491,9 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -509,6 +539,9 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -554,7 +587,13 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -932,10 +971,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -945,19 +984,19 @@
     <col min="1" max="1" width="30" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -974,9 +1013,9 @@
       <c r="L5"/>
       <c r="M5"/>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="2">
-        <v>0</v>
+    <row r="6" spans="1:16">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
@@ -991,9 +1030,9 @@
       <c r="L6"/>
       <c r="M6"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="4">
         <v>1999</v>
@@ -1037,405 +1076,436 @@
       <c r="O7" s="17">
         <v>2015</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" customHeight="1" ht="0">
+      <c r="P7" s="18">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" customHeight="1" ht="0">
       <c r="A8"/>
     </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="32"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="33" t="s">
+    <row r="9" spans="1:16">
+      <c r="A9" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="34"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="36">
         <v>0.58</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="37">
         <v>0.63</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="38">
         <v>0.59</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="39">
         <v>0.61</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="40">
         <v>0.6</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="41">
         <v>0.59</v>
       </c>
-      <c r="H10" s="40">
+      <c r="H10" s="42">
         <v>0.5600000000000001</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10" s="43">
         <v>0.53</v>
       </c>
-      <c r="J10" s="42">
+      <c r="J10" s="44">
         <v>0.5</v>
       </c>
-      <c r="K10" s="43">
+      <c r="K10" s="45">
         <v>0.47</v>
       </c>
-      <c r="L10" s="44">
+      <c r="L10" s="46">
         <v>0.47</v>
       </c>
-      <c r="M10" s="45">
+      <c r="M10" s="47">
         <v>0.48</v>
       </c>
-      <c r="N10" s="46">
-        <v>0.5</v>
-      </c>
-      <c r="O10" s="47">
+      <c r="N10" s="48">
+        <v>0.49</v>
+      </c>
+      <c r="O10" s="49">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="49">
+      <c r="P10" s="50">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="52">
         <v>0.49</v>
       </c>
-      <c r="C11" s="50">
+      <c r="C11" s="53">
         <v>0.54</v>
       </c>
-      <c r="D11" s="51">
+      <c r="D11" s="54">
         <v>0.53</v>
       </c>
-      <c r="E11" s="52">
+      <c r="E11" s="55">
         <v>0.54</v>
       </c>
-      <c r="F11" s="53">
+      <c r="F11" s="56">
         <v>0.54</v>
       </c>
-      <c r="G11" s="54">
+      <c r="G11" s="57">
         <v>0.53</v>
       </c>
-      <c r="H11" s="55">
+      <c r="H11" s="58">
         <v>0.51</v>
       </c>
-      <c r="I11" s="56">
+      <c r="I11" s="59">
         <v>0.48</v>
       </c>
-      <c r="J11" s="57">
+      <c r="J11" s="60">
         <v>0.45</v>
       </c>
-      <c r="K11" s="58">
+      <c r="K11" s="61">
         <v>0.41</v>
       </c>
-      <c r="L11" s="59">
+      <c r="L11" s="62">
         <v>0.42</v>
       </c>
-      <c r="M11" s="60">
+      <c r="M11" s="63">
         <v>0.42</v>
       </c>
-      <c r="N11" s="61">
+      <c r="N11" s="64">
         <v>0.44</v>
       </c>
-      <c r="O11" s="62">
+      <c r="O11" s="65">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="64">
+      <c r="P11" s="66">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="68">
         <v>0.65</v>
       </c>
-      <c r="C12" s="65">
+      <c r="C12" s="69">
         <v>0.6899999999999999</v>
       </c>
-      <c r="D12" s="66">
+      <c r="D12" s="70">
         <v>0.64</v>
       </c>
-      <c r="E12" s="67">
+      <c r="E12" s="71">
         <v>0.61</v>
       </c>
-      <c r="F12" s="68">
+      <c r="F12" s="72">
         <v>0.62</v>
       </c>
-      <c r="G12" s="69">
+      <c r="G12" s="73">
         <v>0.64</v>
       </c>
-      <c r="H12" s="70">
+      <c r="H12" s="74">
         <v>0.64</v>
       </c>
-      <c r="I12" s="71">
+      <c r="I12" s="75">
         <v>0.5600000000000001</v>
       </c>
-      <c r="J12" s="72">
+      <c r="J12" s="76">
         <v>0.53</v>
       </c>
-      <c r="K12" s="73">
+      <c r="K12" s="77">
         <v>0.54</v>
       </c>
-      <c r="L12" s="74">
+      <c r="L12" s="78">
         <v>0.55</v>
       </c>
-      <c r="M12" s="75">
+      <c r="M12" s="79">
         <v>0.53</v>
       </c>
-      <c r="N12" s="76">
+      <c r="N12" s="80">
         <v>0.57</v>
       </c>
-      <c r="O12" s="77">
+      <c r="O12" s="81">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="78" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="91"/>
-      <c r="O13" s="92"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="93" t="s">
+      <c r="P12" s="82">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="94">
+      <c r="B13" s="84"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="98"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="100">
         <v>40.28</v>
       </c>
-      <c r="C14" s="95">
+      <c r="C14" s="101">
         <v>55.65</v>
       </c>
-      <c r="D14" s="96">
+      <c r="D14" s="102">
         <v>27.12</v>
       </c>
-      <c r="E14" s="97">
+      <c r="E14" s="103">
         <v>36.95</v>
       </c>
-      <c r="F14" s="98">
+      <c r="F14" s="104">
         <v>33.18</v>
       </c>
-      <c r="G14" s="99">
+      <c r="G14" s="105">
         <v>23.63</v>
       </c>
-      <c r="H14" s="100">
+      <c r="H14" s="106">
         <v>19.03</v>
       </c>
-      <c r="I14" s="101">
+      <c r="I14" s="107">
         <v>13.91</v>
       </c>
-      <c r="J14" s="102">
+      <c r="J14" s="108">
         <v>14.72</v>
       </c>
-      <c r="K14" s="103">
+      <c r="K14" s="109">
         <v>11.78</v>
       </c>
-      <c r="L14" s="104">
+      <c r="L14" s="110">
         <v>13.39</v>
       </c>
-      <c r="M14" s="105">
+      <c r="M14" s="111">
         <v>11.92</v>
       </c>
-      <c r="N14" s="106">
+      <c r="N14" s="112">
         <v>12.07</v>
       </c>
-      <c r="O14" s="107">
+      <c r="O14" s="113">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="109">
+      <c r="P14" s="114">
+        <v>13.23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="115" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="116">
         <v>4.05</v>
       </c>
-      <c r="C15" s="110">
+      <c r="C15" s="117">
         <v>4.21</v>
       </c>
-      <c r="D15" s="111">
+      <c r="D15" s="118">
         <v>3.84</v>
       </c>
-      <c r="E15" s="112">
+      <c r="E15" s="119">
         <v>3.97</v>
       </c>
-      <c r="F15" s="113">
+      <c r="F15" s="120">
         <v>4.29</v>
       </c>
-      <c r="G15" s="114">
+      <c r="G15" s="121">
         <v>4.12</v>
       </c>
-      <c r="H15" s="115">
+      <c r="H15" s="122">
         <v>3.93</v>
       </c>
-      <c r="I15" s="116">
+      <c r="I15" s="123">
         <v>3.19</v>
       </c>
-      <c r="J15" s="117">
+      <c r="J15" s="124">
         <v>2.95</v>
       </c>
-      <c r="K15" s="118">
+      <c r="K15" s="125">
         <v>2.9</v>
       </c>
-      <c r="L15" s="119">
+      <c r="L15" s="126">
         <v>2.87</v>
       </c>
-      <c r="M15" s="120">
+      <c r="M15" s="127">
         <v>2.88</v>
       </c>
-      <c r="N15" s="121">
+      <c r="N15" s="128">
         <v>2.97</v>
       </c>
-      <c r="O15" s="122">
+      <c r="O15" s="129">
         <v>2.82</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="123" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="124">
+      <c r="P15" s="130">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="131" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="132">
         <v>0.1</v>
       </c>
-      <c r="C16" s="125">
+      <c r="C16" s="133">
         <v>0.08</v>
       </c>
-      <c r="D16" s="126">
+      <c r="D16" s="134">
         <v>0.14</v>
       </c>
-      <c r="E16" s="127">
+      <c r="E16" s="135">
         <v>0.11</v>
       </c>
-      <c r="F16" s="128">
+      <c r="F16" s="136">
         <v>0.13</v>
       </c>
-      <c r="G16" s="129">
+      <c r="G16" s="137">
         <v>0.17</v>
       </c>
-      <c r="H16" s="130">
+      <c r="H16" s="138">
         <v>0.21</v>
       </c>
-      <c r="I16" s="131">
+      <c r="I16" s="139">
         <v>0.23</v>
       </c>
-      <c r="J16" s="132">
+      <c r="J16" s="140">
         <v>0.2</v>
       </c>
-      <c r="K16" s="133">
+      <c r="K16" s="141">
         <v>0.25</v>
       </c>
-      <c r="L16" s="134">
+      <c r="L16" s="142">
         <v>0.21</v>
       </c>
-      <c r="M16" s="135">
+      <c r="M16" s="143">
         <v>0.24</v>
       </c>
-      <c r="N16" s="136">
+      <c r="N16" s="144">
         <v>0.25</v>
       </c>
-      <c r="O16" s="137">
+      <c r="O16" s="145">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="138" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="139">
+      <c r="P16" s="146">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="147" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="148">
         <v>5.21</v>
       </c>
-      <c r="C17" s="140">
+      <c r="C17" s="149">
         <v>5.95</v>
       </c>
-      <c r="D17" s="141">
+      <c r="D17" s="150">
         <v>4.36</v>
       </c>
-      <c r="E17" s="142">
+      <c r="E17" s="151">
         <v>4.72</v>
       </c>
-      <c r="F17" s="143">
+      <c r="F17" s="152">
         <v>4.6</v>
       </c>
-      <c r="G17" s="144">
+      <c r="G17" s="153">
         <v>4.44</v>
       </c>
-      <c r="H17" s="145">
+      <c r="H17" s="154">
         <v>3.9</v>
       </c>
-      <c r="I17" s="146">
+      <c r="I17" s="155">
         <v>3.43</v>
       </c>
-      <c r="J17" s="147">
+      <c r="J17" s="156">
         <v>3.31</v>
       </c>
-      <c r="K17" s="148">
+      <c r="K17" s="157">
         <v>3.19</v>
       </c>
-      <c r="L17" s="149">
+      <c r="L17" s="158">
         <v>3.36</v>
       </c>
-      <c r="M17" s="150">
+      <c r="M17" s="159">
         <v>3.33</v>
       </c>
-      <c r="N17" s="151">
+      <c r="N17" s="160">
         <v>3.19</v>
       </c>
-      <c r="O17" s="152">
+      <c r="O17" s="161">
         <v>3.21</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17" s="162">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1459,6 +1529,7 @@
     <mergeCell ref="M7:M7"/>
     <mergeCell ref="N7:N7"/>
     <mergeCell ref="O7:O7"/>
+    <mergeCell ref="P7:P7"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data-raw/inebo.xlsx
+++ b/data-raw/inebo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>BOLIVIA: INDICADORES DE DISTRIBUCIÓN DEL INGRESO PER CÁPITA MENSUAL</t>
   </si>
@@ -56,13 +56,16 @@
     <t xml:space="preserve">Fuente: INSTITUTO NACIONAL DE ESTADÍSTICA                                                                                                                                                                                                                 </t>
   </si>
   <si>
-    <t xml:space="preserve">ENCUESTAS DE MEJORAMIENTO DE CONDICIONES DE VIDA (MECOVI 1999 - 2002),  ENCUESTA DE HOGARES 2005 - 2016                                                                                                                                                   </t>
+    <t xml:space="preserve">ENCUESTAS DE MEJORAMIENTO DE CONDICIONES DE VIDA (MECOVI 1999 - 2002),  ENCUESTA DE HOGARES 2005 - 2017                                                                                                                                                   </t>
   </si>
   <si>
     <t xml:space="preserve">Notas:                                                                                                                                                                                                                                                    </t>
   </si>
   <si>
-    <t xml:space="preserve">(1) No se calcularon estos indicadores para la Encuesta Contínua a Hogares 2003 - 2004, por tanto no existe información para ese período                                                                                                                  </t>
+    <t xml:space="preserve">(1) Corresponde a indicadores obtenidos por el método del ingreso, calculados a partir de la línea de pobreza.                                                                                                                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2) No se calcularon estos indicadores para la Encuesta Contínua a Hogares 2003 - 2004, por tanto no existe información para ese período                                                                                                                  </t>
   </si>
   <si>
     <t xml:space="preserve">No se realizó la Encuesta de Hogares 2010.                                                                                                                                                                                                                </t>
@@ -75,6 +78,9 @@
     <t xml:space="preserve">A partir de la Encuesta de Hogares 2011, las estimaciones  fueron realizadas con los factores de expansión calculados en base a las proyecciones de población basada en el Censo 2012.
 "
                                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) A partir de 2016 la estimación oficial de los indicadores del mercado laboral corresponden a las que proviene de la Encuesta Continua de Empleo.                                                                                                      </t>
   </si>
 </sst>
 </file>
@@ -147,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="173">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -202,6 +208,9 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -254,6 +263,9 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -302,6 +314,9 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -350,6 +365,9 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -398,6 +416,9 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -446,6 +467,9 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -494,6 +518,9 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -542,6 +569,9 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -590,7 +620,13 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -971,10 +1007,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -984,19 +1020,19 @@
     <col min="1" max="1" width="30" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1013,7 +1049,7 @@
       <c r="L5"/>
       <c r="M5"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1030,7 +1066,7 @@
       <c r="L6"/>
       <c r="M6"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -1079,433 +1115,469 @@
       <c r="P7" s="18">
         <v>2016</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" customHeight="1" ht="0">
+      <c r="Q7" s="19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" customHeight="1" ht="0">
       <c r="A8"/>
     </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:17">
+      <c r="A9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="34"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="35" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="36"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="38">
         <v>0.58</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="39">
         <v>0.63</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="40">
         <v>0.59</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="41">
         <v>0.61</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="42">
         <v>0.6</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="43">
         <v>0.59</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="44">
         <v>0.5600000000000001</v>
       </c>
-      <c r="I10" s="43">
+      <c r="I10" s="45">
         <v>0.53</v>
       </c>
-      <c r="J10" s="44">
+      <c r="J10" s="46">
         <v>0.5</v>
       </c>
-      <c r="K10" s="45">
+      <c r="K10" s="47">
         <v>0.47</v>
       </c>
-      <c r="L10" s="46">
+      <c r="L10" s="48">
         <v>0.47</v>
       </c>
-      <c r="M10" s="47">
+      <c r="M10" s="49">
         <v>0.48</v>
       </c>
-      <c r="N10" s="48">
+      <c r="N10" s="50">
         <v>0.49</v>
       </c>
-      <c r="O10" s="49">
+      <c r="O10" s="51">
         <v>0.47</v>
       </c>
-      <c r="P10" s="50">
+      <c r="P10" s="52">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="51" t="s">
+      <c r="Q10" s="53">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="52">
+      <c r="B11" s="55">
         <v>0.49</v>
       </c>
-      <c r="C11" s="53">
+      <c r="C11" s="56">
         <v>0.54</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="57">
         <v>0.53</v>
       </c>
-      <c r="E11" s="55">
+      <c r="E11" s="58">
         <v>0.54</v>
       </c>
-      <c r="F11" s="56">
+      <c r="F11" s="59">
         <v>0.54</v>
       </c>
-      <c r="G11" s="57">
+      <c r="G11" s="60">
         <v>0.53</v>
       </c>
-      <c r="H11" s="58">
+      <c r="H11" s="61">
         <v>0.51</v>
       </c>
-      <c r="I11" s="59">
+      <c r="I11" s="62">
         <v>0.48</v>
       </c>
-      <c r="J11" s="60">
+      <c r="J11" s="63">
         <v>0.45</v>
       </c>
-      <c r="K11" s="61">
+      <c r="K11" s="64">
         <v>0.41</v>
       </c>
-      <c r="L11" s="62">
+      <c r="L11" s="65">
         <v>0.42</v>
       </c>
-      <c r="M11" s="63">
+      <c r="M11" s="66">
         <v>0.42</v>
       </c>
-      <c r="N11" s="64">
+      <c r="N11" s="67">
         <v>0.44</v>
       </c>
-      <c r="O11" s="65">
+      <c r="O11" s="68">
         <v>0.42</v>
       </c>
-      <c r="P11" s="66">
+      <c r="P11" s="69">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="67" t="s">
+      <c r="Q11" s="70">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="68">
+      <c r="B12" s="72">
         <v>0.65</v>
       </c>
-      <c r="C12" s="69">
+      <c r="C12" s="73">
         <v>0.6899999999999999</v>
       </c>
-      <c r="D12" s="70">
+      <c r="D12" s="74">
         <v>0.64</v>
       </c>
-      <c r="E12" s="71">
+      <c r="E12" s="75">
         <v>0.61</v>
       </c>
-      <c r="F12" s="72">
+      <c r="F12" s="76">
         <v>0.62</v>
       </c>
-      <c r="G12" s="73">
+      <c r="G12" s="77">
         <v>0.64</v>
       </c>
-      <c r="H12" s="74">
+      <c r="H12" s="78">
         <v>0.64</v>
       </c>
-      <c r="I12" s="75">
+      <c r="I12" s="79">
         <v>0.5600000000000001</v>
       </c>
-      <c r="J12" s="76">
+      <c r="J12" s="80">
         <v>0.53</v>
       </c>
-      <c r="K12" s="77">
+      <c r="K12" s="81">
         <v>0.54</v>
       </c>
-      <c r="L12" s="78">
+      <c r="L12" s="82">
         <v>0.55</v>
       </c>
-      <c r="M12" s="79">
+      <c r="M12" s="83">
         <v>0.53</v>
       </c>
-      <c r="N12" s="80">
+      <c r="N12" s="84">
         <v>0.57</v>
       </c>
-      <c r="O12" s="81">
+      <c r="O12" s="85">
         <v>0.52</v>
       </c>
-      <c r="P12" s="82">
+      <c r="P12" s="86">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="83" t="s">
+      <c r="Q12" s="87">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="84"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="98"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="99" t="s">
+      <c r="B13" s="89"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="100"/>
+      <c r="N13" s="101"/>
+      <c r="O13" s="102"/>
+      <c r="P13" s="103"/>
+      <c r="Q13" s="104"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="100">
+      <c r="B14" s="106">
         <v>40.28</v>
       </c>
-      <c r="C14" s="101">
+      <c r="C14" s="107">
         <v>55.65</v>
       </c>
-      <c r="D14" s="102">
+      <c r="D14" s="108">
         <v>27.12</v>
       </c>
-      <c r="E14" s="103">
+      <c r="E14" s="109">
         <v>36.95</v>
       </c>
-      <c r="F14" s="104">
+      <c r="F14" s="110">
         <v>33.18</v>
       </c>
-      <c r="G14" s="105">
+      <c r="G14" s="111">
         <v>23.63</v>
       </c>
-      <c r="H14" s="106">
+      <c r="H14" s="112">
         <v>19.03</v>
       </c>
-      <c r="I14" s="107">
+      <c r="I14" s="113">
         <v>13.91</v>
       </c>
-      <c r="J14" s="108">
+      <c r="J14" s="114">
         <v>14.72</v>
       </c>
-      <c r="K14" s="109">
+      <c r="K14" s="115">
         <v>11.78</v>
       </c>
-      <c r="L14" s="110">
+      <c r="L14" s="116">
         <v>13.39</v>
       </c>
-      <c r="M14" s="111">
+      <c r="M14" s="117">
         <v>11.92</v>
       </c>
-      <c r="N14" s="112">
+      <c r="N14" s="118">
         <v>12.07</v>
       </c>
-      <c r="O14" s="113">
+      <c r="O14" s="119">
         <v>10.7</v>
       </c>
-      <c r="P14" s="114">
+      <c r="P14" s="120">
         <v>13.23</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="115" t="s">
+      <c r="Q14" s="121">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="116">
+      <c r="B15" s="123">
         <v>4.05</v>
       </c>
-      <c r="C15" s="117">
+      <c r="C15" s="124">
         <v>4.21</v>
       </c>
-      <c r="D15" s="118">
+      <c r="D15" s="125">
         <v>3.84</v>
       </c>
-      <c r="E15" s="119">
+      <c r="E15" s="126">
         <v>3.97</v>
       </c>
-      <c r="F15" s="120">
+      <c r="F15" s="127">
         <v>4.29</v>
       </c>
-      <c r="G15" s="121">
+      <c r="G15" s="128">
         <v>4.12</v>
       </c>
-      <c r="H15" s="122">
+      <c r="H15" s="129">
         <v>3.93</v>
       </c>
-      <c r="I15" s="123">
+      <c r="I15" s="130">
         <v>3.19</v>
       </c>
-      <c r="J15" s="124">
+      <c r="J15" s="131">
         <v>2.95</v>
       </c>
-      <c r="K15" s="125">
+      <c r="K15" s="132">
         <v>2.9</v>
       </c>
-      <c r="L15" s="126">
+      <c r="L15" s="133">
         <v>2.87</v>
       </c>
-      <c r="M15" s="127">
+      <c r="M15" s="134">
         <v>2.88</v>
       </c>
-      <c r="N15" s="128">
+      <c r="N15" s="135">
         <v>2.97</v>
       </c>
-      <c r="O15" s="129">
+      <c r="O15" s="136">
         <v>2.82</v>
       </c>
-      <c r="P15" s="130">
+      <c r="P15" s="137">
         <v>2.87</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="131" t="s">
+      <c r="Q15" s="138">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="132">
+      <c r="B16" s="140">
         <v>0.1</v>
       </c>
-      <c r="C16" s="133">
+      <c r="C16" s="141">
         <v>0.08</v>
       </c>
-      <c r="D16" s="134">
+      <c r="D16" s="142">
         <v>0.14</v>
       </c>
-      <c r="E16" s="135">
+      <c r="E16" s="143">
         <v>0.11</v>
       </c>
-      <c r="F16" s="136">
+      <c r="F16" s="144">
         <v>0.13</v>
       </c>
-      <c r="G16" s="137">
+      <c r="G16" s="145">
         <v>0.17</v>
       </c>
-      <c r="H16" s="138">
+      <c r="H16" s="146">
         <v>0.21</v>
       </c>
-      <c r="I16" s="139">
+      <c r="I16" s="147">
         <v>0.23</v>
       </c>
-      <c r="J16" s="140">
+      <c r="J16" s="148">
         <v>0.2</v>
       </c>
-      <c r="K16" s="141">
+      <c r="K16" s="149">
         <v>0.25</v>
       </c>
-      <c r="L16" s="142">
+      <c r="L16" s="150">
         <v>0.21</v>
       </c>
-      <c r="M16" s="143">
+      <c r="M16" s="151">
         <v>0.24</v>
       </c>
-      <c r="N16" s="144">
+      <c r="N16" s="152">
         <v>0.25</v>
       </c>
-      <c r="O16" s="145">
+      <c r="O16" s="153">
         <v>0.26</v>
       </c>
-      <c r="P16" s="146">
+      <c r="P16" s="154">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="147" t="s">
+      <c r="Q16" s="155">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="148">
+      <c r="B17" s="157">
         <v>5.21</v>
       </c>
-      <c r="C17" s="149">
+      <c r="C17" s="158">
         <v>5.95</v>
       </c>
-      <c r="D17" s="150">
+      <c r="D17" s="159">
         <v>4.36</v>
       </c>
-      <c r="E17" s="151">
+      <c r="E17" s="160">
         <v>4.72</v>
       </c>
-      <c r="F17" s="152">
+      <c r="F17" s="161">
         <v>4.6</v>
       </c>
-      <c r="G17" s="153">
+      <c r="G17" s="162">
         <v>4.44</v>
       </c>
-      <c r="H17" s="154">
+      <c r="H17" s="163">
         <v>3.9</v>
       </c>
-      <c r="I17" s="155">
+      <c r="I17" s="164">
         <v>3.43</v>
       </c>
-      <c r="J17" s="156">
+      <c r="J17" s="165">
         <v>3.31</v>
       </c>
-      <c r="K17" s="157">
+      <c r="K17" s="166">
         <v>3.19</v>
       </c>
-      <c r="L17" s="158">
+      <c r="L17" s="167">
         <v>3.36</v>
       </c>
-      <c r="M17" s="159">
+      <c r="M17" s="168">
         <v>3.33</v>
       </c>
-      <c r="N17" s="160">
+      <c r="N17" s="169">
         <v>3.19</v>
       </c>
-      <c r="O17" s="161">
+      <c r="O17" s="170">
         <v>3.21</v>
       </c>
-      <c r="P17" s="162">
+      <c r="P17" s="171">
         <v>3.39</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17" s="172">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1530,6 +1602,7 @@
     <mergeCell ref="N7:N7"/>
     <mergeCell ref="O7:O7"/>
     <mergeCell ref="P7:P7"/>
+    <mergeCell ref="Q7:Q7"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
